--- a/Schedule/Schedule_10312024.xlsx
+++ b/Schedule/Schedule_10312024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbounthavong/Library/CloudStorage/Dropbox/VA-related work/VASDHS - Residency Stats Course/2024-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98583FA-8383-7A4F-A313-172BC4EB2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50EDDE-7A0F-A349-82FC-4A815D7F21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1400" windowWidth="25220" windowHeight="17800" xr2:uid="{08B0B0C0-8ECA-41C0-AD25-1151E3D2B74B}"/>
   </bookViews>
@@ -147,17 +147,18 @@
     <t>Hulley Chapter 5</t>
   </si>
   <si>
+    <t>R Tutorial (non-video)</t>
+  </si>
+  <si>
+    <t>Github Respository</t>
+  </si>
+  <si>
+    <t>Links to readings:</t>
+  </si>
+  <si>
     <t>Bivariate analysis -- Part 2: ANOVA and Kruskall Wallis
+RxC analysis
 Building Table 1 demographics -- Part 2</t>
-  </si>
-  <si>
-    <t>R Tutorial (non-video)</t>
-  </si>
-  <si>
-    <t>Github Respository</t>
-  </si>
-  <si>
-    <t>Links to readings:</t>
   </si>
 </sst>
 </file>
@@ -583,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A9F865-9FEF-459B-B74C-BCC6DBB6DCCD}">
   <dimension ref="D2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -601,12 +602,12 @@
   <sheetData>
     <row r="2" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.2">
@@ -665,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
@@ -686,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4"/>
     </row>

--- a/Schedule/Schedule_10312024.xlsx
+++ b/Schedule/Schedule_10312024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbounthavong/Library/CloudStorage/Dropbox/VA-related work/VASDHS - Residency Stats Course/2024-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50EDDE-7A0F-A349-82FC-4A815D7F21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E9C77-36AC-CF4D-BF23-F4F8C1683FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1400" windowWidth="25220" windowHeight="17800" xr2:uid="{08B0B0C0-8ECA-41C0-AD25-1151E3D2B74B}"/>
   </bookViews>
@@ -60,10 +60,6 @@
 Odds ratio and Relative Risk ratio</t>
   </si>
   <si>
-    <t>Observational Study designs -- Part 3
-ANOVA and Kruskal-Wallis test</t>
-  </si>
-  <si>
     <t>Regression models -- Part 1</t>
   </si>
   <si>
@@ -159,6 +155,9 @@
     <t>Bivariate analysis -- Part 2: ANOVA and Kruskall Wallis
 RxC analysis
 Building Table 1 demographics -- Part 2</t>
+  </si>
+  <si>
+    <t>Observational Study designs -- Part 3</t>
   </si>
 </sst>
 </file>
@@ -584,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A9F865-9FEF-459B-B74C-BCC6DBB6DCCD}">
   <dimension ref="D2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -602,12 +601,12 @@
   <sheetData>
     <row r="2" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.2">
@@ -621,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
@@ -635,13 +634,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -649,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -666,14 +665,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -681,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -699,13 +698,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,13 +715,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,14 +729,14 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -745,16 +744,16 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,16 +761,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -779,16 +778,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,16 +795,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
